--- a/testData/TestInputData.xlsx
+++ b/testData/TestInputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87011E87-7841-46D1-BFE9-0B2044943F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D77608-6CA5-4885-B77D-637D9DCE4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D025A621-A274-4044-879E-8EE157B14EB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="113">
   <si>
     <t>Location</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>5+ Years of experience</t>
-  </si>
-  <si>
-    <t>General Physician</t>
   </si>
 </sst>
 </file>
@@ -492,9 +489,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{478405C2-322C-4BBC-8751-F74294C5A261}"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -690,6 +684,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -736,24 +733,24 @@
     <tableColumn id="6" xr3:uid="{EFB5735F-77CD-4597-A261-6817C873A2C2}" name="Availability" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{4FE6BC85-F5F5-451B-83A2-6A052363D05C}" name="Sort By" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{77383E81-AD25-4D51-86C9-4F90D4CD8024}" name="Type" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{DA19BA71-875E-4B0D-A336-A1D3740986EA}" name="Exp" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{DA19BA71-875E-4B0D-A336-A1D3740986EA}" name="Exp" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1E412E-8433-4D03-950A-19962E2A1527}" name="Table4" displayName="Table4" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B1E412E-8433-4D03-950A-19962E2A1527}" name="Table4" displayName="Table4" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Normal 2">
   <autoFilter ref="A1:H1048576" xr:uid="{2B1E412E-8433-4D03-950A-19962E2A1527}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{E9A63EC3-62BF-427A-AE9C-74493E546D9F}" name="Name" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{114CC42C-4ADE-4974-B081-336763A730A4}" name="Company Name" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{EF5070EE-58D7-43AE-8984-649310033012}" name="Phone Number" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{1AFA16CB-AB7B-4E57-9106-6EF6A9373114}" name="Email ID" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{DCD3B6C3-315D-4166-803F-C6B26793AEC1}" name="Org Size" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{0A9D9ADC-172A-4B8A-8207-473B0C1EEDB9}" name="Interest " dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="1" xr3:uid="{8405B3D5-CD94-46E9-9A68-979D1BAC3321}" name="Type" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{D4C8DC13-0AB6-44BC-9725-61FE429E90D5}" name="Exp" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{E9A63EC3-62BF-427A-AE9C-74493E546D9F}" name="Name" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{114CC42C-4ADE-4974-B081-336763A730A4}" name="Company Name" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{EF5070EE-58D7-43AE-8984-649310033012}" name="Phone Number" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{1AFA16CB-AB7B-4E57-9106-6EF6A9373114}" name="Email ID" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{DCD3B6C3-315D-4166-803F-C6B26793AEC1}" name="Org Size" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{0A9D9ADC-172A-4B8A-8207-473B0C1EEDB9}" name="Interest " dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{8405B3D5-CD94-46E9-9A68-979D1BAC3321}" name="Type" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{D4C8DC13-0AB6-44BC-9725-61FE429E90D5}" name="Exp" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1058,14 +1055,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DD0BE6-E68B-44B6-B723-2ACD22EE9CDC}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.08984375" style="2" customWidth="1"/>
-    <col min="2" max="6" width="27.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" style="2" customWidth="1"/>
+    <col min="3" max="6" width="27.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -1136,7 +1134,7 @@
         <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>112</v>
@@ -1220,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1241,7 +1239,7 @@
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1">
@@ -1299,7 +1297,7 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1">
@@ -1548,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F881A-7838-44F0-A432-582E35FFC639}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1561,7 +1559,7 @@
     <col min="5" max="5" width="23.81640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.54296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="27.08984375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="30.08984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21.5" customHeight="1">

--- a/testData/TestInputData.xlsx
+++ b/testData/TestInputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406BEEB-21F7-4235-AC08-48B76053E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D8A065-7F78-45E3-A63E-AA0A9469A471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D025A621-A274-4044-879E-8EE157B14EB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D025A621-A274-4044-879E-8EE157B14EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor Search Input Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="113">
   <si>
     <t>Location</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DD0BE6-E68B-44B6-B723-2ACD22EE9CDC}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1184,13 +1187,13 @@
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
@@ -1242,13 +1245,13 @@
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
@@ -1266,7 +1269,7 @@
         <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1">
@@ -1544,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F881A-7838-44F0-A432-582E35FFC639}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
